--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H2">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30157483041766</v>
+        <v>1.467406</v>
       </c>
       <c r="N2">
-        <v>1.30157483041766</v>
+        <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8212598866281821</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P2">
-        <v>0.8212598866281821</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q2">
-        <v>3.511109396670678</v>
+        <v>1.272390677412</v>
       </c>
       <c r="R2">
-        <v>3.511109396670678</v>
+        <v>11.451516096708</v>
       </c>
       <c r="S2">
-        <v>0.8212598866281821</v>
+        <v>0.1490146300224764</v>
       </c>
       <c r="T2">
-        <v>0.8212598866281821</v>
+        <v>0.1621578548302277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,867 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H3">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.283276507885846</v>
+        <v>0.030706</v>
       </c>
       <c r="N3">
-        <v>0.283276507885846</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O3">
-        <v>0.1787401133718179</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P3">
-        <v>0.1787401133718179</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q3">
-        <v>0.7641626016806804</v>
+        <v>0.026625234012</v>
       </c>
       <c r="R3">
-        <v>0.7641626016806804</v>
+        <v>0.239627106108</v>
       </c>
       <c r="S3">
-        <v>0.1787401133718179</v>
+        <v>0.003118184898705717</v>
       </c>
       <c r="T3">
-        <v>0.1787401133718179</v>
+        <v>0.003393211619972231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.867102</v>
+      </c>
+      <c r="H4">
+        <v>2.601306</v>
+      </c>
+      <c r="I4">
+        <v>0.1822127481805035</v>
+      </c>
+      <c r="J4">
+        <v>0.1873730734573072</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.296209</v>
+      </c>
+      <c r="N4">
+        <v>0.592418</v>
+      </c>
+      <c r="O4">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P4">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q4">
+        <v>0.256843416318</v>
+      </c>
+      <c r="R4">
+        <v>1.541060497908</v>
+      </c>
+      <c r="S4">
+        <v>0.03007993325932136</v>
+      </c>
+      <c r="T4">
+        <v>0.02182200700710729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.84797</v>
+      </c>
+      <c r="H5">
+        <v>8.54391</v>
+      </c>
+      <c r="I5">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J5">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.467406</v>
+      </c>
+      <c r="N5">
+        <v>4.402218</v>
+      </c>
+      <c r="O5">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P5">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q5">
+        <v>4.179128265819999</v>
+      </c>
+      <c r="R5">
+        <v>37.61215439238</v>
+      </c>
+      <c r="S5">
+        <v>0.4894339949222953</v>
+      </c>
+      <c r="T5">
+        <v>0.5326025148377509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.84797</v>
+      </c>
+      <c r="H6">
+        <v>8.54391</v>
+      </c>
+      <c r="I6">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J6">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.030706</v>
+      </c>
+      <c r="N6">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P6">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q6">
+        <v>0.08744976682000001</v>
+      </c>
+      <c r="R6">
+        <v>0.78704790138</v>
+      </c>
+      <c r="S6">
+        <v>0.01024158293484148</v>
+      </c>
+      <c r="T6">
+        <v>0.01114489978956607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.84797</v>
+      </c>
+      <c r="H7">
+        <v>8.54391</v>
+      </c>
+      <c r="I7">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J7">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.296209</v>
+      </c>
+      <c r="N7">
+        <v>0.592418</v>
+      </c>
+      <c r="O7">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P7">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q7">
+        <v>0.84359434573</v>
+      </c>
+      <c r="R7">
+        <v>5.06156607438</v>
+      </c>
+      <c r="S7">
+        <v>0.09879662084108844</v>
+      </c>
+      <c r="T7">
+        <v>0.07167371462184534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.030386</v>
+      </c>
+      <c r="H8">
+        <v>0.091158</v>
+      </c>
+      <c r="I8">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J8">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.467406</v>
+      </c>
+      <c r="N8">
+        <v>4.402218</v>
+      </c>
+      <c r="O8">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P8">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q8">
+        <v>0.044588598716</v>
+      </c>
+      <c r="R8">
+        <v>0.401297388444</v>
+      </c>
+      <c r="S8">
+        <v>0.005221944532319113</v>
+      </c>
+      <c r="T8">
+        <v>0.005682524751264901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.030386</v>
+      </c>
+      <c r="H9">
+        <v>0.091158</v>
+      </c>
+      <c r="I9">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J9">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.030706</v>
+      </c>
+      <c r="N9">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P9">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q9">
+        <v>0.000933032516</v>
+      </c>
+      <c r="R9">
+        <v>0.008397292644000002</v>
+      </c>
+      <c r="S9">
+        <v>0.0001092710734516492</v>
+      </c>
+      <c r="T9">
+        <v>0.0001189088807135449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.030386</v>
+      </c>
+      <c r="H10">
+        <v>0.091158</v>
+      </c>
+      <c r="I10">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J10">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.296209</v>
+      </c>
+      <c r="N10">
+        <v>0.592418</v>
+      </c>
+      <c r="O10">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P10">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q10">
+        <v>0.009000606673999999</v>
+      </c>
+      <c r="R10">
+        <v>0.054003640044</v>
+      </c>
+      <c r="S10">
+        <v>0.001054096117893557</v>
+      </c>
+      <c r="T10">
+        <v>0.0007647122309923885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.620104</v>
+      </c>
+      <c r="H11">
+        <v>1.860312</v>
+      </c>
+      <c r="I11">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J11">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.467406</v>
+      </c>
+      <c r="N11">
+        <v>4.402218</v>
+      </c>
+      <c r="O11">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P11">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q11">
+        <v>0.9099443302239998</v>
+      </c>
+      <c r="R11">
+        <v>8.189498972015999</v>
+      </c>
+      <c r="S11">
+        <v>0.1065671260537488</v>
+      </c>
+      <c r="T11">
+        <v>0.1159664427156707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.620104</v>
+      </c>
+      <c r="H12">
+        <v>1.860312</v>
+      </c>
+      <c r="I12">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J12">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030706</v>
+      </c>
+      <c r="N12">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P12">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q12">
+        <v>0.019040913424</v>
+      </c>
+      <c r="R12">
+        <v>0.171368220816</v>
+      </c>
+      <c r="S12">
+        <v>0.002229955562813844</v>
+      </c>
+      <c r="T12">
+        <v>0.002426639655301522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.620104</v>
+      </c>
+      <c r="H13">
+        <v>1.860312</v>
+      </c>
+      <c r="I13">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J13">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.296209</v>
+      </c>
+      <c r="N13">
+        <v>0.592418</v>
+      </c>
+      <c r="O13">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P13">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q13">
+        <v>0.183680385736</v>
+      </c>
+      <c r="R13">
+        <v>1.102082314416</v>
+      </c>
+      <c r="S13">
+        <v>0.02151152567268697</v>
+      </c>
+      <c r="T13">
+        <v>0.01560590776302587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.393172</v>
+      </c>
+      <c r="H14">
+        <v>0.786344</v>
+      </c>
+      <c r="I14">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J14">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.467406</v>
+      </c>
+      <c r="N14">
+        <v>4.402218</v>
+      </c>
+      <c r="O14">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P14">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q14">
+        <v>0.576942951832</v>
+      </c>
+      <c r="R14">
+        <v>3.461657710992</v>
+      </c>
+      <c r="S14">
+        <v>0.06756803711120156</v>
+      </c>
+      <c r="T14">
+        <v>0.04901839929582316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.393172</v>
+      </c>
+      <c r="H15">
+        <v>0.786344</v>
+      </c>
+      <c r="I15">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J15">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.030706</v>
+      </c>
+      <c r="N15">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P15">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q15">
+        <v>0.012072739432</v>
+      </c>
+      <c r="R15">
+        <v>0.07243643659200001</v>
+      </c>
+      <c r="S15">
+        <v>0.001413885555556237</v>
+      </c>
+      <c r="T15">
+        <v>0.001025727691434781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.393172</v>
+      </c>
+      <c r="H16">
+        <v>0.786344</v>
+      </c>
+      <c r="I16">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J16">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.296209</v>
+      </c>
+      <c r="N16">
+        <v>0.592418</v>
+      </c>
+      <c r="O16">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P16">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q16">
+        <v>0.116461084948</v>
+      </c>
+      <c r="R16">
+        <v>0.465844339792</v>
+      </c>
+      <c r="S16">
+        <v>0.0136392114415996</v>
+      </c>
+      <c r="T16">
+        <v>0.006596534309303394</v>
       </c>
     </row>
   </sheetData>
